--- a/SuppXLS/Scen_Peak_RSV.xlsx
+++ b/SuppXLS/Scen_Peak_RSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062A7A1-DD04-4B37-83A4-E6DC91DAA687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A108B1-D5F8-4490-9BE2-C39AD5F00B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>2005</v>
+        <v>2022</v>
       </c>
       <c r="I5" s="9">
         <v>0.05</v>
@@ -798,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="I6" s="10">
         <v>0.2</v>
